--- a/data/trans_orig/P25C_R_2023-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P25C_R_2023-Dificultad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>8096</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3991</v>
+        <v>3454</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>15489</v>
+        <v>14186</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.09232783079282714</v>
+        <v>0.09232783079282712</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04551139307216709</v>
+        <v>0.03938323700731587</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1766314858073291</v>
+        <v>0.1617685563668342</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>5</v>
@@ -762,7 +762,7 @@
         <v>3423</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1313</v>
+        <v>1278</v>
       </c>
       <c r="M4" s="5" t="n">
         <v>7078</v>
@@ -771,10 +771,10 @@
         <v>0.0670287454809062</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02571019786161842</v>
+        <v>0.02501982684258892</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1385928720907398</v>
+        <v>0.1385945453171684</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>14</v>
@@ -783,19 +783,19 @@
         <v>11520</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>6696</v>
+        <v>6233</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>18232</v>
+        <v>19314</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.08301632926195182</v>
+        <v>0.08301632926195181</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04825121462997255</v>
+        <v>0.04491670713486223</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.131385941152065</v>
+        <v>0.1391874221674877</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>79596</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>72203</v>
+        <v>73506</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>83701</v>
+        <v>84238</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9076721692071729</v>
+        <v>0.907672169207173</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8233685141926711</v>
+        <v>0.8382314436331658</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9544886069278329</v>
+        <v>0.9606167629926841</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>64</v>
@@ -836,16 +836,16 @@
         <v>43995</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>49760</v>
+        <v>49795</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9329712545190937</v>
+        <v>0.9329712545190938</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8614071279092606</v>
+        <v>0.8614054546828315</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9742898021383818</v>
+        <v>0.9749801731574108</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>149</v>
@@ -854,19 +854,19 @@
         <v>127245</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>120533</v>
+        <v>119451</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>132069</v>
+        <v>132532</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9169836707380484</v>
+        <v>0.9169836707380482</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8686140588479351</v>
+        <v>0.8608125778325123</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9517487853700272</v>
+        <v>0.9550832928651374</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>25417</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>16889</v>
+        <v>17420</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>35527</v>
+        <v>35972</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1307997440217326</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08691344496601205</v>
+        <v>0.08964869329046252</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1828313088182734</v>
+        <v>0.1851215395049305</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>14</v>
@@ -979,19 +979,19 @@
         <v>9245</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>5332</v>
+        <v>5389</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>14385</v>
+        <v>14648</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1053455350050551</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06075326836971844</v>
+        <v>0.06140399663848085</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1639137077814693</v>
+        <v>0.166916242412934</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>41</v>
@@ -1000,19 +1000,19 @@
         <v>34661</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>25160</v>
+        <v>25178</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>44973</v>
+        <v>46398</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1228806174402025</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08919513781782863</v>
+        <v>0.089260504890925</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.159436836295854</v>
+        <v>0.1644891011261189</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>168900</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>158790</v>
+        <v>158345</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>177428</v>
+        <v>176897</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8692002559782676</v>
+        <v>0.8692002559782674</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8171686911817265</v>
+        <v>0.8148784604950696</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9130865550339878</v>
+        <v>0.9103513067095373</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>112</v>
@@ -1050,19 +1050,19 @@
         <v>78512</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>73372</v>
+        <v>73109</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>82425</v>
+        <v>82368</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8946544649949451</v>
+        <v>0.8946544649949449</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.836086292218531</v>
+        <v>0.833083757587066</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9392467316302815</v>
+        <v>0.938596003361519</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>310</v>
@@ -1071,19 +1071,19 @@
         <v>247413</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>237101</v>
+        <v>235676</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>256914</v>
+        <v>256896</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.8771193825597974</v>
+        <v>0.8771193825597977</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8405631637041461</v>
+        <v>0.8355108988738807</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9108048621821716</v>
+        <v>0.9107394951090748</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>5742</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2501</v>
+        <v>2155</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>11276</v>
+        <v>11803</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03451638259627895</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0150352469971236</v>
+        <v>0.01295299525195947</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06778222051009523</v>
+        <v>0.07094830227994413</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>14</v>
@@ -1196,19 +1196,19 @@
         <v>9234</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5362</v>
+        <v>5172</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>14567</v>
+        <v>14936</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1006428719481334</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05844638027445753</v>
+        <v>0.05637164291051307</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1587705056878783</v>
+        <v>0.1627947957409336</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>21</v>
@@ -1217,19 +1217,19 @@
         <v>14976</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>9536</v>
+        <v>9158</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>23171</v>
+        <v>22447</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.05802275130313357</v>
+        <v>0.05802275130313356</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03694719439944288</v>
+        <v>0.03548144873254316</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08977372632194985</v>
+        <v>0.08696807050907268</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>160612</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>155078</v>
+        <v>154551</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>163853</v>
+        <v>164199</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9654836174037211</v>
+        <v>0.9654836174037209</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9322177794899047</v>
+        <v>0.9290516977200559</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9849647530028763</v>
+        <v>0.9870470047480404</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>119</v>
@@ -1267,19 +1267,19 @@
         <v>82516</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>77183</v>
+        <v>76814</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>86388</v>
+        <v>86578</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.8993571280518667</v>
+        <v>0.8993571280518666</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8412294943121215</v>
+        <v>0.8372052042590663</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9415536197255426</v>
+        <v>0.9436283570894869</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>313</v>
@@ -1288,19 +1288,19 @@
         <v>243127</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>234932</v>
+        <v>235656</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>248567</v>
+        <v>248945</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9419772486968665</v>
+        <v>0.9419772486968664</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.91022627367805</v>
+        <v>0.9130319294909263</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9630528056005571</v>
+        <v>0.9645185512674564</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>8989</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4404</v>
+        <v>4566</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>16196</v>
+        <v>16699</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04349267995176672</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02130764267535772</v>
+        <v>0.0220915708560296</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07836495865774339</v>
+        <v>0.08079758492065726</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>13</v>
@@ -1413,19 +1413,19 @@
         <v>8697</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>4589</v>
+        <v>4753</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>14625</v>
+        <v>14201</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06650190212973379</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03509246567872482</v>
+        <v>0.03634469066784052</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1118337009984486</v>
+        <v>0.1085932131616655</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>23</v>
@@ -1434,19 +1434,19 @@
         <v>17686</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>11315</v>
+        <v>11630</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>25717</v>
+        <v>25881</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05240967478450238</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03353172387962079</v>
+        <v>0.03446419999396161</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07620806757967015</v>
+        <v>0.0766956564867403</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>197689</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>190482</v>
+        <v>189979</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>202274</v>
+        <v>202112</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9565073200482335</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9216350413422568</v>
+        <v>0.9192024150793427</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9786923573246422</v>
+        <v>0.9779084291439705</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>177</v>
@@ -1484,19 +1484,19 @@
         <v>122080</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>116152</v>
+        <v>116576</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>126188</v>
+        <v>126024</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9334980978702662</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8881662990015513</v>
+        <v>0.8914067868383346</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9649075343212752</v>
+        <v>0.9636553093321594</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>401</v>
@@ -1505,19 +1505,19 @@
         <v>319769</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>311738</v>
+        <v>311574</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>326140</v>
+        <v>325825</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9475903252154976</v>
+        <v>0.9475903252154978</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.92379193242033</v>
+        <v>0.9233043435132607</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9664682761203793</v>
+        <v>0.9655358000060384</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>48244</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>36331</v>
+        <v>36654</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>63404</v>
+        <v>62124</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.07365028864045679</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05546349533239359</v>
+        <v>0.05595677351579692</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09679392027968924</v>
+        <v>0.09483934696406542</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>46</v>
@@ -1630,19 +1630,19 @@
         <v>30599</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>22301</v>
+        <v>22675</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>40491</v>
+        <v>40149</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.084678156951186</v>
+        <v>0.08467815695118598</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06171430415041061</v>
+        <v>0.06275024779849102</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.112051424234653</v>
+        <v>0.1111073838679125</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>99</v>
@@ -1651,19 +1651,19 @@
         <v>78843</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>64994</v>
+        <v>64405</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>96970</v>
+        <v>95091</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.07757099713885772</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06394560838226947</v>
+        <v>0.06336580652430364</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09540521041975505</v>
+        <v>0.09355685219907647</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>606796</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>591636</v>
+        <v>592916</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>618709</v>
+        <v>618386</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9263497113595432</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.903206079720311</v>
+        <v>0.9051606530359345</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9445365046676065</v>
+        <v>0.944043226484203</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>472</v>
@@ -1701,19 +1701,19 @@
         <v>330758</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>320866</v>
+        <v>321208</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>339056</v>
+        <v>338682</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9153218430488141</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8879485757653469</v>
+        <v>0.8888926161320879</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9382856958495894</v>
+        <v>0.9372497522015092</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1173</v>
@@ -1722,19 +1722,19 @@
         <v>937554</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>919427</v>
+        <v>921306</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>951403</v>
+        <v>951992</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9224290028611422</v>
+        <v>0.9224290028611424</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.904594789580245</v>
+        <v>0.9064431478009235</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9360543916177304</v>
+        <v>0.9366341934756961</v>
       </c>
     </row>
     <row r="18">
